--- a/study01/report/motivation/intrinsic-motivation/MeasurementModel.xlsx
+++ b/study01/report/motivation/intrinsic-motivation/MeasurementModel.xlsx
@@ -12345,28 +12345,28 @@
         <v>31</v>
       </c>
       <c r="B69" t="n" s="282">
-        <v>0.7139211948550876</v>
+        <v>0.7102522244400443</v>
       </c>
       <c r="C69" t="n" s="283">
-        <v>-1.7638001147271405</v>
+        <v>-1.79334325854996</v>
       </c>
       <c r="D69" t="n" s="284">
-        <v>0.07776563819457377</v>
+        <v>0.07291805442276154</v>
       </c>
       <c r="E69" t="n" s="285">
-        <v>0.9331876583348853</v>
+        <v>0.9368324984877175</v>
       </c>
       <c r="F69" t="n" s="286">
-        <v>0.7225622850038163</v>
+        <v>0.7221490442706534</v>
       </c>
       <c r="G69" t="n" s="287">
-        <v>-1.7651408073493278</v>
+        <v>-1.7677625589391455</v>
       </c>
       <c r="H69" t="n" s="288">
-        <v>0.07754010385182926</v>
+        <v>0.07710060662850891</v>
       </c>
       <c r="I69" t="n" s="289">
-        <v>0.9304812462219512</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
@@ -12374,28 +12374,28 @@
         <v>32</v>
       </c>
       <c r="B70" t="n" s="282">
-        <v>0.5158838415040773</v>
+        <v>0.5163513164263797</v>
       </c>
       <c r="C70" t="n" s="283">
-        <v>-3.1809418515425407</v>
+        <v>-3.19326587078488</v>
       </c>
       <c r="D70" t="n" s="284">
-        <v>0.0014679709129155937</v>
+        <v>0.001406733611170817</v>
       </c>
       <c r="E70" t="n" s="285">
-        <v>0.03229536008414306</v>
+        <v>0.03094813944575797</v>
       </c>
       <c r="F70" t="n" s="286">
-        <v>0.5285991242551639</v>
+        <v>0.5306210995706321</v>
       </c>
       <c r="G70" t="n" s="287">
-        <v>-3.2560383952070375</v>
+        <v>-3.243050959633987</v>
       </c>
       <c r="H70" t="n" s="288">
-        <v>0.0011297847248413297</v>
+        <v>0.0011825705768449125</v>
       </c>
       <c r="I70" t="n" s="289">
-        <v>0.019206340322302607</v>
+        <v>0.020103699806363513</v>
       </c>
     </row>
     <row r="71">
@@ -12403,28 +12403,28 @@
         <v>33</v>
       </c>
       <c r="B71" t="n" s="282">
-        <v>0.586212361051758</v>
+        <v>0.5897517909924926</v>
       </c>
       <c r="C71" t="n" s="283">
-        <v>-2.766943720126266</v>
+        <v>-2.7498178288600656</v>
       </c>
       <c r="D71" t="n" s="284">
-        <v>0.005658452268016529</v>
+        <v>0.005962840469423603</v>
       </c>
       <c r="E71" t="n" s="285">
-        <v>0.11316904536033057</v>
+        <v>0.11925680938847205</v>
       </c>
       <c r="F71" t="n" s="286">
-        <v>0.5683066879709235</v>
+        <v>0.571636401854883</v>
       </c>
       <c r="G71" t="n" s="287">
-        <v>-3.005508573896806</v>
+        <v>-2.979456111783104</v>
       </c>
       <c r="H71" t="n" s="288">
-        <v>0.0026513712101053</v>
+        <v>0.0028876059261354332</v>
       </c>
       <c r="I71" t="n" s="289">
-        <v>0.0424219393616848</v>
+        <v>0.04620169481816693</v>
       </c>
     </row>
     <row r="72">
@@ -12432,25 +12432,25 @@
         <v>34</v>
       </c>
       <c r="B72" t="n" s="282">
-        <v>1.2316140676483853</v>
+        <v>1.221993206009893</v>
       </c>
       <c r="C72" t="n" s="283">
-        <v>1.3077042032997055</v>
+        <v>1.2653528956509783</v>
       </c>
       <c r="D72" t="n" s="284">
-        <v>0.19097365711918485</v>
+        <v>0.2057448527838118</v>
       </c>
       <c r="E72" t="n" s="285">
         <v>1.0</v>
       </c>
       <c r="F72" t="n" s="286">
-        <v>1.2455664559474664</v>
+        <v>1.2371637877269916</v>
       </c>
       <c r="G72" t="n" s="287">
-        <v>1.408546765026945</v>
+        <v>1.36725461286199</v>
       </c>
       <c r="H72" t="n" s="288">
-        <v>0.1589692295640409</v>
+        <v>0.17154551262695875</v>
       </c>
       <c r="I72" t="n" s="289">
         <v>1.0</v>
@@ -12461,25 +12461,25 @@
         <v>35</v>
       </c>
       <c r="B73" t="n" s="282">
-        <v>0.7606363332434501</v>
+        <v>0.7531719408039613</v>
       </c>
       <c r="C73" t="n" s="283">
-        <v>-1.4367135342116966</v>
+        <v>-1.49079964084624</v>
       </c>
       <c r="D73" t="n" s="284">
-        <v>0.1507994076960714</v>
+        <v>0.13601410610882683</v>
       </c>
       <c r="E73" t="n" s="285">
         <v>1.0</v>
       </c>
       <c r="F73" t="n" s="286">
-        <v>0.7731359041089977</v>
+        <v>0.7676017459973329</v>
       </c>
       <c r="G73" t="n" s="287">
-        <v>-1.4028449231939557</v>
+        <v>-1.4410499616973693</v>
       </c>
       <c r="H73" t="n" s="288">
-        <v>0.16066308764899573</v>
+        <v>0.1495705684850997</v>
       </c>
       <c r="I73" t="n" s="289">
         <v>1.0</v>
@@ -12490,28 +12490,28 @@
         <v>36</v>
       </c>
       <c r="B74" t="n" s="282">
-        <v>0.7071011643300018</v>
+        <v>0.7169092578353109</v>
       </c>
       <c r="C74" t="n" s="283">
-        <v>-1.861798552143324</v>
+        <v>-1.7987133355157396</v>
       </c>
       <c r="D74" t="n" s="284">
-        <v>0.06263149067595357</v>
+        <v>0.07206403834520904</v>
       </c>
       <c r="E74" t="n" s="285">
-        <v>0.8768408694633499</v>
+        <v>0.9368324984877175</v>
       </c>
       <c r="F74" t="n" s="286">
-        <v>0.7175348035639059</v>
+        <v>0.7259228476408969</v>
       </c>
       <c r="G74" t="n" s="287">
-        <v>-1.825836518513254</v>
+        <v>-1.7664667233231472</v>
       </c>
       <c r="H74" t="n" s="288">
-        <v>0.0678748907201778</v>
+        <v>0.07731757959074388</v>
       </c>
       <c r="I74" t="n" s="289">
-        <v>0.8823735793623114</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -12519,25 +12519,25 @@
         <v>37</v>
       </c>
       <c r="B75" t="n" s="282">
-        <v>0.7996428298545692</v>
+        <v>0.8023887906675108</v>
       </c>
       <c r="C75" t="n" s="283">
-        <v>-0.9591279597847513</v>
+        <v>-0.9471765119030913</v>
       </c>
       <c r="D75" t="n" s="284">
-        <v>0.33749428660946607</v>
+        <v>0.3435488419835124</v>
       </c>
       <c r="E75" t="n" s="285">
         <v>1.0</v>
       </c>
       <c r="F75" t="n" s="286">
-        <v>0.8651521446045657</v>
+        <v>0.8692948668865643</v>
       </c>
       <c r="G75" t="n" s="287">
-        <v>-0.6894477265912373</v>
+        <v>-0.665305532443103</v>
       </c>
       <c r="H75" t="n" s="288">
-        <v>0.49054155799889043</v>
+        <v>0.50585509272842</v>
       </c>
       <c r="I75" t="n" s="289">
         <v>1.0</v>
@@ -12548,28 +12548,28 @@
         <v>38</v>
       </c>
       <c r="B76" t="n" s="282">
-        <v>1.2604448034639886</v>
+        <v>1.2554872823011896</v>
       </c>
       <c r="C76" t="n" s="283">
-        <v>1.461550571257775</v>
+        <v>1.4417615098147456</v>
       </c>
       <c r="D76" t="n" s="284">
-        <v>0.14386440783064236</v>
+        <v>0.14936966462897747</v>
       </c>
       <c r="E76" t="n" s="285">
         <v>1.0</v>
       </c>
       <c r="F76" t="n" s="286">
-        <v>1.3076305483331192</v>
+        <v>1.3028233495778272</v>
       </c>
       <c r="G76" t="n" s="287">
-        <v>1.727944718480455</v>
+        <v>1.7044209544694906</v>
       </c>
       <c r="H76" t="n" s="288">
-        <v>0.08399813595077528</v>
+        <v>0.08830247191473141</v>
       </c>
       <c r="I76" t="n" s="289">
-        <v>0.9304812462219512</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
@@ -12577,25 +12577,25 @@
         <v>39</v>
       </c>
       <c r="B77" t="n" s="282">
-        <v>1.3044301619884127</v>
+        <v>1.3013145309754592</v>
       </c>
       <c r="C77" t="n" s="283">
-        <v>1.595914938749406</v>
+        <v>1.588623554850191</v>
       </c>
       <c r="D77" t="n" s="284">
-        <v>0.110507785762837</v>
+        <v>0.11214540701758477</v>
       </c>
       <c r="E77" t="n" s="285">
         <v>1.0</v>
       </c>
       <c r="F77" t="n" s="286">
-        <v>1.2867431302326344</v>
+        <v>1.287505786328445</v>
       </c>
       <c r="G77" t="n" s="287">
-        <v>1.5854886005847888</v>
+        <v>1.5906410843624585</v>
       </c>
       <c r="H77" t="n" s="288">
-        <v>0.11285536489233672</v>
+        <v>0.1116903728641033</v>
       </c>
       <c r="I77" t="n" s="289">
         <v>1.0</v>
@@ -12606,25 +12606,25 @@
         <v>40</v>
       </c>
       <c r="B78" t="n" s="282">
-        <v>1.0211082650426875</v>
+        <v>1.0259587624806243</v>
       </c>
       <c r="C78" t="n" s="283">
-        <v>0.1710795572238809</v>
+        <v>0.20086858054910608</v>
       </c>
       <c r="D78" t="n" s="284">
-        <v>0.8641612098611152</v>
+        <v>0.8408013360511046</v>
       </c>
       <c r="E78" t="n" s="285">
         <v>1.0</v>
       </c>
       <c r="F78" t="n" s="286">
-        <v>1.0814900334696402</v>
+        <v>1.0871864024520093</v>
       </c>
       <c r="G78" t="n" s="287">
-        <v>0.5182265041428784</v>
+        <v>0.5520137584266119</v>
       </c>
       <c r="H78" t="n" s="288">
-        <v>0.6043002446527542</v>
+        <v>0.5809389269639206</v>
       </c>
       <c r="I78" t="n" s="289">
         <v>1.0</v>
@@ -12635,25 +12635,25 @@
         <v>41</v>
       </c>
       <c r="B79" t="n" s="282">
-        <v>0.8266947400605705</v>
+        <v>0.8351151323306873</v>
       </c>
       <c r="C79" t="n" s="283">
-        <v>-0.8672083458127349</v>
+        <v>-0.8206383653280304</v>
       </c>
       <c r="D79" t="n" s="284">
-        <v>0.3858278642939846</v>
+        <v>0.4118522877700457</v>
       </c>
       <c r="E79" t="n" s="285">
         <v>1.0</v>
       </c>
       <c r="F79" t="n" s="286">
-        <v>0.8360095996425053</v>
+        <v>0.8428142628027762</v>
       </c>
       <c r="G79" t="n" s="287">
-        <v>-0.8972761415334959</v>
+        <v>-0.8542686776074163</v>
       </c>
       <c r="H79" t="n" s="288">
-        <v>0.36957158424683634</v>
+        <v>0.3929561380453082</v>
       </c>
       <c r="I79" t="n" s="289">
         <v>1.0</v>
@@ -12664,28 +12664,28 @@
         <v>42</v>
       </c>
       <c r="B80" t="n" s="282">
-        <v>1.9098347899807036</v>
+        <v>1.9161828200435163</v>
       </c>
       <c r="C80" t="n" s="283">
-        <v>3.103410156147236</v>
+        <v>3.1422478606394457</v>
       </c>
       <c r="D80" t="n" s="284">
-        <v>0.001913043099370654</v>
+        <v>0.0016765604338596365</v>
       </c>
       <c r="E80" t="n" s="285">
-        <v>0.040173905086783736</v>
+        <v>0.03520776911105237</v>
       </c>
       <c r="F80" t="n" s="286">
-        <v>1.487853505577807</v>
+        <v>1.4930331264631411</v>
       </c>
       <c r="G80" t="n" s="287">
-        <v>2.140791918023635</v>
+        <v>2.159843523373519</v>
       </c>
       <c r="H80" t="n" s="288">
-        <v>0.032290822009555034</v>
+        <v>0.030784785051682643</v>
       </c>
       <c r="I80" t="n" s="289">
-        <v>0.4520715081337705</v>
+        <v>0.45790830117513837</v>
       </c>
     </row>
     <row r="81">
@@ -12693,25 +12693,25 @@
         <v>43</v>
       </c>
       <c r="B81" t="n" s="282">
-        <v>1.1029233404483338</v>
+        <v>1.110830047433975</v>
       </c>
       <c r="C81" t="n" s="283">
-        <v>0.42245119411997395</v>
+        <v>0.4455243636863007</v>
       </c>
       <c r="D81" t="n" s="284">
-        <v>0.6726957174845924</v>
+        <v>0.65594085692286</v>
       </c>
       <c r="E81" t="n" s="285">
         <v>1.0</v>
       </c>
       <c r="F81" t="n" s="286">
-        <v>1.1425894744767195</v>
+        <v>1.1478374833824345</v>
       </c>
       <c r="G81" t="n" s="287">
-        <v>0.6085148049842098</v>
+        <v>0.6269203912404256</v>
       </c>
       <c r="H81" t="n" s="288">
-        <v>0.5428460897858366</v>
+        <v>0.5307114200610097</v>
       </c>
       <c r="I81" t="n" s="289">
         <v>1.0</v>
@@ -12722,25 +12722,25 @@
         <v>44</v>
       </c>
       <c r="B82" t="n" s="282">
-        <v>0.845675103668339</v>
+        <v>0.854996394467487</v>
       </c>
       <c r="C82" t="n" s="283">
-        <v>-0.5008323206135137</v>
+        <v>-0.46379829374966003</v>
       </c>
       <c r="D82" t="n" s="284">
-        <v>0.6164891369931318</v>
+        <v>0.6427922659151202</v>
       </c>
       <c r="E82" t="n" s="285">
         <v>1.0</v>
       </c>
       <c r="F82" t="n" s="286">
-        <v>1.0255343789684623</v>
+        <v>1.0336763426363478</v>
       </c>
       <c r="G82" t="n" s="287">
-        <v>0.18245610981469065</v>
+        <v>0.21731747228613463</v>
       </c>
       <c r="H82" t="n" s="288">
-        <v>0.8552247954454266</v>
+        <v>0.8279609415370823</v>
       </c>
       <c r="I82" t="n" s="289">
         <v>1.0</v>
@@ -12751,25 +12751,25 @@
         <v>45</v>
       </c>
       <c r="B83" t="n" s="282">
-        <v>1.708609055461578</v>
+        <v>1.6877923492310956</v>
       </c>
       <c r="C83" t="n" s="283">
-        <v>2.3957786432374593</v>
+        <v>2.347170582175368</v>
       </c>
       <c r="D83" t="n" s="284">
-        <v>0.016585102891199886</v>
+        <v>0.018916592128177232</v>
       </c>
       <c r="E83" t="n" s="285">
-        <v>0.2819467491503981</v>
+        <v>0.32158206617901297</v>
       </c>
       <c r="F83" t="n" s="286">
-        <v>1.2970422272766973</v>
+        <v>1.2908148880855503</v>
       </c>
       <c r="G83" t="n" s="287">
-        <v>1.331619339761162</v>
+        <v>1.306203082246107</v>
       </c>
       <c r="H83" t="n" s="288">
-        <v>0.18298530652588638</v>
+        <v>0.19148350493390479</v>
       </c>
       <c r="I83" t="n" s="289">
         <v>1.0</v>
@@ -12780,25 +12780,25 @@
         <v>46</v>
       </c>
       <c r="B84" t="n" s="282">
-        <v>1.138667267499902</v>
+        <v>1.1170524935569102</v>
       </c>
       <c r="C84" t="n" s="283">
-        <v>0.7784417175803146</v>
+        <v>0.6762732457323923</v>
       </c>
       <c r="D84" t="n" s="284">
-        <v>0.43630865315639317</v>
+        <v>0.4988671759045609</v>
       </c>
       <c r="E84" t="n" s="285">
         <v>1.0</v>
       </c>
       <c r="F84" t="n" s="286">
-        <v>1.0895089234622273</v>
+        <v>1.0785494658587487</v>
       </c>
       <c r="G84" t="n" s="287">
-        <v>0.5569393743080254</v>
+        <v>0.49870216096386555</v>
       </c>
       <c r="H84" t="n" s="288">
-        <v>0.5775688515073334</v>
+        <v>0.6179892220151211</v>
       </c>
       <c r="I84" t="n" s="289">
         <v>1.0</v>
@@ -12809,28 +12809,28 @@
         <v>47</v>
       </c>
       <c r="B85" t="n" s="282">
-        <v>1.4164309753242483</v>
+        <v>1.417563876322283</v>
       </c>
       <c r="C85" t="n" s="283">
-        <v>1.9399403839188252</v>
+        <v>1.9563275660157824</v>
       </c>
       <c r="D85" t="n" s="284">
-        <v>0.0523869354623776</v>
+        <v>0.05042657889180803</v>
       </c>
       <c r="E85" t="n" s="285">
-        <v>0.785804031935664</v>
+        <v>0.7563986833771205</v>
       </c>
       <c r="F85" t="n" s="286">
-        <v>1.4348147289781303</v>
+        <v>1.428888759575498</v>
       </c>
       <c r="G85" t="n" s="287">
-        <v>2.1850423089381708</v>
+        <v>2.1631815325858157</v>
       </c>
       <c r="H85" t="n" s="288">
-        <v>0.028885744586893268</v>
+        <v>0.03052722007834256</v>
       </c>
       <c r="I85" t="n" s="289">
-        <v>0.43328616880339904</v>
+        <v>0.45790830117513837</v>
       </c>
     </row>
     <row r="86">
@@ -12838,28 +12838,28 @@
         <v>68</v>
       </c>
       <c r="B86" t="n" s="282">
-        <v>2.646773971162889</v>
+        <v>2.6596503114286056</v>
       </c>
       <c r="C86" t="n" s="283">
-        <v>1.8352216125985314</v>
+        <v>1.849777063650538</v>
       </c>
       <c r="D86" t="n" s="284">
-        <v>0.06647286008419873</v>
+        <v>0.06434568797797711</v>
       </c>
       <c r="E86" t="n" s="285">
-        <v>0.8768408694633499</v>
+        <v>0.9008396316916796</v>
       </c>
       <c r="F86" t="n" s="286">
-        <v>2.6409366007634136</v>
+        <v>2.6521378690464545</v>
       </c>
       <c r="G86" t="n" s="287">
-        <v>34.212879435344014</v>
+        <v>34.498864720534186</v>
       </c>
       <c r="H86" t="n" s="288">
-        <v>1.555781757061068E-256</v>
+        <v>8.342138028096397E-261</v>
       </c>
       <c r="I86" t="n" s="289">
-        <v>2.9559853384160294E-255</v>
+        <v>1.5850062253383153E-259</v>
       </c>
     </row>
     <row r="87">
@@ -12867,22 +12867,22 @@
         <v>69</v>
       </c>
       <c r="B87" t="n" s="282">
-        <v>2.7370774762466774</v>
+        <v>2.741802979039746</v>
       </c>
       <c r="C87" t="n" s="283">
-        <v>2.4343503403697095</v>
+        <v>2.447074747465292</v>
       </c>
       <c r="D87" t="n" s="284">
-        <v>0.014918547760797271</v>
+        <v>0.014402096730052464</v>
       </c>
       <c r="E87" t="n" s="285">
-        <v>0.2685338596943509</v>
+        <v>0.25923774114094433</v>
       </c>
       <c r="F87" t="n" s="286">
-        <v>2.716144223410591</v>
+        <v>2.7191572871681906</v>
       </c>
       <c r="G87" t="n" s="287">
-        <v>43.8073884247601</v>
+        <v>43.92321227906516</v>
       </c>
       <c r="H87" t="n" s="288">
         <v>0.0</v>
@@ -12896,22 +12896,22 @@
         <v>70</v>
       </c>
       <c r="B88" t="n" s="282">
-        <v>2.264882411965661</v>
+        <v>2.270637202293419</v>
       </c>
       <c r="C88" t="n" s="283">
-        <v>2.6384700998656667</v>
+        <v>2.669189773926313</v>
       </c>
       <c r="D88" t="n" s="284">
-        <v>0.00832810441757355</v>
+        <v>0.0076034476329891855</v>
       </c>
       <c r="E88" t="n" s="285">
-        <v>0.15823398393389745</v>
+        <v>0.14446550502679453</v>
       </c>
       <c r="F88" t="n" s="286">
-        <v>2.264376753739792</v>
+        <v>2.2694091171180726</v>
       </c>
       <c r="G88" t="n" s="287">
-        <v>49.07025666226127</v>
+        <v>49.29228455308183</v>
       </c>
       <c r="H88" t="n" s="288">
         <v>0.0</v>
@@ -12925,22 +12925,22 @@
         <v>71</v>
       </c>
       <c r="B89" t="n" s="282">
-        <v>2.5540224542147323</v>
+        <v>2.566700947423164</v>
       </c>
       <c r="C89" t="n" s="283">
-        <v>2.1936394659826792</v>
+        <v>2.2255122736709736</v>
       </c>
       <c r="D89" t="n" s="284">
-        <v>0.028261338823063614</v>
+        <v>0.026046868107268473</v>
       </c>
       <c r="E89" t="n" s="285">
-        <v>0.4521814211690178</v>
+        <v>0.41674988971629556</v>
       </c>
       <c r="F89" t="n" s="286">
-        <v>2.5790348269935497</v>
+        <v>2.587531247681248</v>
       </c>
       <c r="G89" t="n" s="287">
-        <v>50.516375794156836</v>
+        <v>51.07694080366513</v>
       </c>
       <c r="H89" t="n" s="288">
         <v>0.0</v>
@@ -12954,28 +12954,28 @@
         <v>72</v>
       </c>
       <c r="B90" t="n" s="282">
-        <v>2.013080375608315</v>
+        <v>2.009733424367019</v>
       </c>
       <c r="C90" t="n" s="283">
-        <v>1.0560827772497283</v>
+        <v>1.0561863829123954</v>
       </c>
       <c r="D90" t="n" s="284">
-        <v>0.29093039818533917</v>
+        <v>0.29088307073327413</v>
       </c>
       <c r="E90" t="n" s="285">
         <v>1.0</v>
       </c>
       <c r="F90" t="n" s="286">
-        <v>2.1181108402055226</v>
+        <v>2.114452677532483</v>
       </c>
       <c r="G90" t="n" s="287">
-        <v>18.364298760064695</v>
+        <v>18.37312113241374</v>
       </c>
       <c r="H90" t="n" s="288">
-        <v>2.537055449317655E-75</v>
+        <v>2.1564666024139926E-75</v>
       </c>
       <c r="I90" t="n" s="289">
-        <v>4.5666998087717795E-74</v>
+        <v>3.881639884345187E-74</v>
       </c>
     </row>
     <row r="91">
